--- a/raw_data/MEA_dimorphism_samples.xlsx
+++ b/raw_data/MEA_dimorphism_samples.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dorin Shteyman\Documents\GitHub\brains_v2\raw_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amitzeisel/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5444DB1-9F52-4664-AF26-3C0E4C09F486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{962CD49C-33FD-9A4D-9716-CFC251EBB06F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{28319184-C317-F14D-85E6-467A66E3131D}"/>
+    <workbookView xWindow="1000" yWindow="460" windowWidth="27420" windowHeight="17040" xr2:uid="{28319184-C317-F14D-85E6-467A66E3131D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -99,7 +99,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -443,12 +443,12 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>16</v>
       </c>
@@ -456,7 +456,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -467,7 +467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -478,7 +478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -489,7 +489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -500,7 +500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -511,7 +511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -533,7 +533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -544,7 +544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -555,7 +555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -566,7 +566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -577,7 +577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -588,7 +588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -599,7 +599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -610,7 +610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -621,7 +621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>15</v>
       </c>
